--- a/data/trans_dic/BARTHEL_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.267354907951725</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3768058200291604</v>
+        <v>0.3768058200291602</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1647743705487264</v>
@@ -697,7 +697,7 @@
         <v>0.2206279750073128</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3386730522032866</v>
+        <v>0.3386730522032865</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08642389987423596</v>
+        <v>0.08747073611486246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1396995849893259</v>
+        <v>0.1355981487613443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1023405663227094</v>
+        <v>0.1021735899394888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.177820509070112</v>
+        <v>0.1881092823868389</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1348959349355996</v>
+        <v>0.1345647974093421</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2561810027267203</v>
+        <v>0.2560242479909615</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2128340238765232</v>
+        <v>0.2113988460791911</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3137044321208322</v>
+        <v>0.3141572242897223</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1312622917610617</v>
+        <v>0.1313876020634478</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2241948114896659</v>
+        <v>0.2221445868911834</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1774089661600171</v>
+        <v>0.1838927495224503</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2920859677411288</v>
+        <v>0.2927692045600664</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2025929062431374</v>
+        <v>0.1977767103484742</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2815255180408734</v>
+        <v>0.2737534130400416</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2087368073279448</v>
+        <v>0.2083945026029664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3627566323888042</v>
+        <v>0.3708249111333115</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2295413776624856</v>
+        <v>0.2286094283525048</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3814708632600982</v>
+        <v>0.3867370059255483</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3303837621366187</v>
+        <v>0.326727406187487</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4347818838511378</v>
+        <v>0.437424247670911</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2058615001096119</v>
+        <v>0.2030891448937602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3208316097288674</v>
+        <v>0.318447460285289</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2656878545761154</v>
+        <v>0.2681278676213052</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3936262484420758</v>
+        <v>0.3890430588072679</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1116086162057834</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1516078541967493</v>
+        <v>0.1516078541967494</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1018983832518833</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04263669589349162</v>
+        <v>0.03818639843815517</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1033951910692742</v>
+        <v>0.1041765627742626</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07273033365133579</v>
+        <v>0.07022349891803215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1139085752704382</v>
+        <v>0.1153500276295428</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06007684558160684</v>
+        <v>0.06426860616627987</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2268852709361983</v>
+        <v>0.2254913368407013</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1301740347812586</v>
+        <v>0.1298365427502798</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2105931098566484</v>
+        <v>0.2096914878125225</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05981728729432595</v>
+        <v>0.06193422287087574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1911135586817595</v>
+        <v>0.1942970737079529</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.117721512975971</v>
+        <v>0.1167481555173827</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1814646338914526</v>
+        <v>0.1806300777650154</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.120433715223435</v>
+        <v>0.1184342308134916</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2318916552352741</v>
+        <v>0.2280680230342789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1621412601057492</v>
+        <v>0.1595744463956668</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1954844864531508</v>
+        <v>0.1992868150551848</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.14917910519911</v>
+        <v>0.1515010856700352</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3440350360641114</v>
+        <v>0.3483827048997388</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2480769588515664</v>
+        <v>0.2477198524935088</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2798378071172213</v>
+        <v>0.2836616351851957</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1226883495392678</v>
+        <v>0.118402307975656</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2761223522498723</v>
+        <v>0.2764680322230215</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1916694663314021</v>
+        <v>0.1930728832216587</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2370377157723196</v>
+        <v>0.2330830072075219</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07947884560863087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09661928409888379</v>
+        <v>0.09661928409888383</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0948278467692556</v>
@@ -957,7 +957,7 @@
         <v>0.2165501469599445</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1917112441210009</v>
+        <v>0.191711244121001</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07031856967863154</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01920338277303061</v>
+        <v>0.01932845592981367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06284808969957881</v>
+        <v>0.06238498530678484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04458792536558477</v>
+        <v>0.04387517336215267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06757609106265693</v>
+        <v>0.06616239413485996</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05372235618661939</v>
+        <v>0.05402419964092654</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1363774985388064</v>
+        <v>0.1268235131562321</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1523023997323283</v>
+        <v>0.1527533868353692</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1551086580943811</v>
+        <v>0.154071782211239</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04516116931671585</v>
+        <v>0.04306754113501957</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1123898343812258</v>
+        <v>0.1123778939615436</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1160925213895684</v>
+        <v>0.1172068710665496</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1199564798647541</v>
+        <v>0.1200661859250873</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08816896860297907</v>
+        <v>0.09229770469315203</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1713753957645875</v>
+        <v>0.1671002186453749</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1313553664769427</v>
+        <v>0.1345616707315015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1356078491131726</v>
+        <v>0.1326572503239356</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1573454498710186</v>
+        <v>0.1562279678392129</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2516035484638762</v>
+        <v>0.2495029102390217</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2994602176327734</v>
+        <v>0.294079648611383</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2308398365879674</v>
+        <v>0.2334715366962552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1086121585114081</v>
+        <v>0.1010124989383114</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1933705463353372</v>
+        <v>0.1924638997274314</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2047306848074072</v>
+        <v>0.2026916703840557</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1698696325222037</v>
+        <v>0.1702455199521526</v>
       </c>
     </row>
     <row r="13">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06430702216111925</v>
+        <v>0.06737161832683437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08558705465241501</v>
+        <v>0.07849161590921896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06855972686197558</v>
+        <v>0.06918698156072116</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05285521141386306</v>
+        <v>0.05218538242638517</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1205012076072789</v>
+        <v>0.1260286612225067</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0994942363186294</v>
+        <v>0.09674410067983903</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1157671735195046</v>
+        <v>0.1189344636029943</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02737213400764718</v>
+        <v>0.03250875021844333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1184294226014646</v>
+        <v>0.1134976644064236</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1044344284162724</v>
+        <v>0.1074138064457585</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09940210427437125</v>
+        <v>0.09957585822619808</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06929085484464073</v>
+        <v>0.08485674660995303</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2627745313032911</v>
+        <v>0.2529310501892016</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2422454077505484</v>
+        <v>0.2179764227778652</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1406170639794657</v>
+        <v>0.1398875885917535</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.284959773185021</v>
+        <v>0.3047328123532115</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3069407117449802</v>
+        <v>0.3100349658209333</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2606969570710778</v>
+        <v>0.2663967391132633</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1920142092930723</v>
+        <v>0.1943171174965266</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1452619734443968</v>
+        <v>0.1470674157468034</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.239615893174725</v>
+        <v>0.2484874102457249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2183479283272944</v>
+        <v>0.215974894750458</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1527359944248449</v>
+        <v>0.152439866713256</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05668254550851523</v>
+        <v>0.0572156248347592</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.119233288016799</v>
+        <v>0.119030934088114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09412203292751677</v>
+        <v>0.09274907300417343</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1079240728278184</v>
+        <v>0.1076686220321214</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1091098844149394</v>
+        <v>0.1093563490577624</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2270219529711373</v>
+        <v>0.2267755727397475</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1843876900571078</v>
+        <v>0.1866612326536718</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2087399095804263</v>
+        <v>0.2096173423738521</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09192119806138659</v>
+        <v>0.09326327053258042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1898174967627449</v>
+        <v>0.1903734447404353</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1521169296382272</v>
+        <v>0.1552729650009838</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1701337964325612</v>
+        <v>0.1695017703086228</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1018273268687479</v>
+        <v>0.1030481597701685</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1876029743325744</v>
+        <v>0.1858225608029934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1449923848894151</v>
+        <v>0.1446538746040334</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1506478924846307</v>
+        <v>0.1488267693747496</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1608261491547512</v>
+        <v>0.1634685069696972</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2941850881009682</v>
+        <v>0.2908349945658432</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2522102994574061</v>
+        <v>0.253039790159911</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2500859781470473</v>
+        <v>0.2503914324421765</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1278382996619688</v>
+        <v>0.1284079599753045</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2366996879368807</v>
+        <v>0.241223288235711</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1948907783833703</v>
+        <v>0.1991540557182019</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1996998212725937</v>
+        <v>0.1998967281273892</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11148</v>
+        <v>11283</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19213</v>
+        <v>18649</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17035</v>
+        <v>17007</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11785</v>
+        <v>12467</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>36720</v>
+        <v>36630</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>55241</v>
+        <v>55208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>55417</v>
+        <v>55044</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>44373</v>
+        <v>44437</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>52663</v>
+        <v>52713</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>79178</v>
+        <v>78454</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>75724</v>
+        <v>78491</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>60672</v>
+        <v>60814</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26133</v>
+        <v>25511</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38719</v>
+        <v>37650</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34745</v>
+        <v>34688</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24041</v>
+        <v>24576</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>62484</v>
+        <v>62230</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>82258</v>
+        <v>83394</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>86025</v>
+        <v>85073</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>61499</v>
+        <v>61873</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>82592</v>
+        <v>81480</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>113307</v>
+        <v>112465</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>113404</v>
+        <v>114446</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>81764</v>
+        <v>80812</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6931</v>
+        <v>6207</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17833</v>
+        <v>17967</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12347</v>
+        <v>11921</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22873</v>
+        <v>23163</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12231</v>
+        <v>13085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>56056</v>
+        <v>55711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>28743</v>
+        <v>28669</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>63420</v>
+        <v>63148</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>21902</v>
+        <v>22677</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>80179</v>
+        <v>81515</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45978</v>
+        <v>45598</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>91086</v>
+        <v>90667</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19577</v>
+        <v>19252</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39994</v>
+        <v>39335</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27526</v>
+        <v>27090</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39254</v>
+        <v>40017</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30372</v>
+        <v>30845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>85000</v>
+        <v>86074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>54777</v>
+        <v>54698</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>84273</v>
+        <v>85424</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>44923</v>
+        <v>43353</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>115843</v>
+        <v>115988</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>74860</v>
+        <v>75408</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>118981</v>
+        <v>116996</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2783</v>
+        <v>2801</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10448</v>
+        <v>10371</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6946</v>
+        <v>6834</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15496</v>
+        <v>15172</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7847</v>
+        <v>7891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26194</v>
+        <v>24359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28040</v>
+        <v>28123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36498</v>
+        <v>36254</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13141</v>
+        <v>12532</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>40270</v>
+        <v>40266</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>39457</v>
+        <v>39836</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>55734</v>
+        <v>55785</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12777</v>
+        <v>13375</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28489</v>
+        <v>27778</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20461</v>
+        <v>20961</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31097</v>
+        <v>30420</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22983</v>
+        <v>22820</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>48326</v>
+        <v>47922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>55132</v>
+        <v>54142</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54318</v>
+        <v>54937</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31604</v>
+        <v>29393</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>69286</v>
+        <v>68961</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>69583</v>
+        <v>68890</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>78925</v>
+        <v>79099</v>
       </c>
     </row>
     <row r="16">
@@ -2143,37 +2143,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5022</v>
+        <v>5262</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7527</v>
+        <v>6903</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14548</v>
+        <v>14681</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2074</v>
+        <v>2047</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10249</v>
+        <v>10719</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10600</v>
+        <v>10307</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23862</v>
+        <v>24515</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2425</v>
+        <v>2879</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19321</v>
+        <v>18517</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20311</v>
+        <v>20890</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>41581</v>
+        <v>41654</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3419</v>
+        <v>4187</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20522</v>
+        <v>19753</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21304</v>
+        <v>19170</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29838</v>
+        <v>29683</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11180</v>
+        <v>11956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26105</v>
+        <v>26368</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27774</v>
+        <v>28381</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39578</v>
+        <v>40053</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12867</v>
+        <v>13027</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>39092</v>
+        <v>40540</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>42465</v>
+        <v>42003</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>63892</v>
+        <v>63768</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>27537</v>
+        <v>27796</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>66095</v>
+        <v>65983</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>54585</v>
+        <v>53788</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76473</v>
+        <v>76292</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>72134</v>
+        <v>72297</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>167956</v>
+        <v>167773</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>142315</v>
+        <v>144070</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>184531</v>
+        <v>185307</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>105426</v>
+        <v>106965</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>245653</v>
+        <v>246373</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>205625</v>
+        <v>209891</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>270956</v>
+        <v>269950</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49468</v>
+        <v>50061</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>103995</v>
+        <v>103008</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>84086</v>
+        <v>83890</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>106746</v>
+        <v>105456</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>106324</v>
+        <v>108071</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>217644</v>
+        <v>215166</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>194662</v>
+        <v>195302</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>221082</v>
+        <v>221352</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>146620</v>
+        <v>147273</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>306326</v>
+        <v>312180</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>263445</v>
+        <v>269208</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>318043</v>
+        <v>318357</v>
       </c>
     </row>
     <row r="24">
